--- a/JGT-workspace/report/Solution/Solution_.xlsx
+++ b/JGT-workspace/report/Solution/Solution_.xlsx
@@ -94,13 +94,13 @@
     <t>numerator</t>
   </si>
   <si>
-    <t>-1414443728</t>
+    <t>188862779</t>
   </si>
   <si>
     <t>denominator</t>
   </si>
   <si>
-    <t>2019460295</t>
+    <t>2007596918</t>
   </si>
 </sst>
 </file>
